--- a/examples/Germany/DEModel.xlsx
+++ b/examples/Germany/DEModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina Hajikazemi\Documents\mycode\CESMjl\examples\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42D112A-F71E-4B2F-A126-3CF958D65FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62491223-5846-454E-88D8-33887D7424F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="855" windowWidth="23040" windowHeight="13485" firstSheet="2" activeTab="4" xr2:uid="{EC78BDD3-7137-425A-8228-7CE92A9A1C25}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="18720" firstSheet="2" activeTab="4" xr2:uid="{EC78BDD3-7137-425A-8228-7CE92A9A1C25}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -43,6 +43,9 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="247">
   <si>
     <t>Base</t>
   </si>
@@ -805,13 +808,19 @@
   </si>
   <si>
     <t>Demand_NonEnergy</t>
+  </si>
+  <si>
+    <t>Sina Comment</t>
+  </si>
+  <si>
+    <t>deleted !</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -835,8 +844,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -871,6 +887,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -925,10 +946,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -960,24 +982,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1037,9 +1052,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3B410155-A5BA-46F0-9E6F-5ACE99BE50CB}" name="Tabelle5" displayName="Tabelle5" ref="A1:Z94" totalsRowShown="0">
-  <autoFilter ref="A1:Z94" xr:uid="{CC8370AE-B0DF-4511-8343-A59356928224}"/>
-  <tableColumns count="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3B410155-A5BA-46F0-9E6F-5ACE99BE50CB}" name="Tabelle5" displayName="Tabelle5" ref="A1:AA94" totalsRowShown="0">
+  <autoFilter ref="A1:AA94" xr:uid="{CC8370AE-B0DF-4511-8343-A59356928224}"/>
+  <tableColumns count="27">
     <tableColumn id="2" xr3:uid="{54C95160-A387-4A69-A36D-F51CAC324BA8}" name="conversion_process_name"/>
     <tableColumn id="3" xr3:uid="{F734FC28-E1F0-40DB-9868-A9E76CEF9705}" name="commodity_in"/>
     <tableColumn id="4" xr3:uid="{CE25309C-0467-45E4-A59E-A8513BC033B1}" name="commodity_out"/>
@@ -1066,6 +1081,7 @@
     <tableColumn id="21" xr3:uid="{33C93FE7-C61E-404B-925A-4E4B5066362B}" name="in_frac_max"/>
     <tableColumn id="22" xr3:uid="{70D2DD1D-B57D-454F-9312-97105F63F446}" name="output_profile"/>
     <tableColumn id="23" xr3:uid="{40F4DABB-297A-49DE-93EA-62FF923192F0}" name="availability_profile"/>
+    <tableColumn id="27" xr3:uid="{EE5537B1-41D8-4A37-AC40-EEF7A2D295ED}" name="Sina Comment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2386,13 +2402,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042B031A-8F6B-4A01-B2DE-DD19A2E3D336}">
-  <dimension ref="A1:Z94"/>
+  <dimension ref="A1:AA94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="V34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Y63" sqref="Y63"/>
+      <selection pane="bottomRight" activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2422,7 +2438,7 @@
     <col min="26" max="26" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>119</v>
       </c>
@@ -2501,8 +2517,11 @@
       <c r="Z1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" s="6" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="6" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E2" s="9" t="s">
         <v>102</v>
       </c>
@@ -2561,7 +2580,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -2613,7 +2632,7 @@
         <v>Mio EUR</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>67</v>
       </c>
@@ -2655,7 +2674,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2695,7 +2714,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>68</v>
       </c>
@@ -2735,7 +2754,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>70</v>
       </c>
@@ -2775,7 +2794,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>71</v>
       </c>
@@ -2815,7 +2834,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>73</v>
       </c>
@@ -2852,7 +2871,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>74</v>
       </c>
@@ -2891,7 +2910,7 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
     </row>
-    <row r="11" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>128</v>
       </c>
@@ -2922,7 +2941,7 @@
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="18">
+      <c r="S11" s="17">
         <v>0</v>
       </c>
       <c r="T11" s="5"/>
@@ -2932,8 +2951,11 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA11" s="20" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2957,7 +2979,7 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>75</v>
       </c>
@@ -2991,7 +3013,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>131</v>
       </c>
@@ -3025,7 +3047,7 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>132</v>
       </c>
@@ -3059,7 +3081,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3690,7 +3712,7 @@
         <v>197</v>
       </c>
       <c r="L32" s="5"/>
-      <c r="N32" s="18" t="s">
+      <c r="N32" s="5" t="s">
         <v>197</v>
       </c>
       <c r="O32" s="4"/>
@@ -3705,7 +3727,7 @@
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="5"/>
-      <c r="Z32" s="22" t="s">
+      <c r="Z32" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3733,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="5"/>
-      <c r="N33" s="18" t="s">
+      <c r="N33" s="5" t="s">
         <v>200</v>
       </c>
       <c r="O33" s="4">
@@ -3752,7 +3774,7 @@
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="5"/>
-      <c r="Z33" s="20" t="s">
+      <c r="Z33" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3827,7 +3849,7 @@
       <c r="L35" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="N35" s="18" t="s">
+      <c r="N35" s="7" t="s">
         <v>198</v>
       </c>
       <c r="O35" s="4"/>
@@ -3842,7 +3864,7 @@
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="5"/>
-      <c r="Z35" s="22" t="s">
+      <c r="Z35" s="5" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3870,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="5"/>
-      <c r="N36" s="18" t="s">
+      <c r="N36" s="7" t="s">
         <v>232</v>
       </c>
       <c r="O36" s="4">
@@ -3889,7 +3911,7 @@
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="5"/>
-      <c r="Z36" s="18" t="s">
+      <c r="Z36" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3919,7 +3941,7 @@
       <c r="L37" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="N37" s="18" t="s">
+      <c r="N37" s="5" t="s">
         <v>199</v>
       </c>
       <c r="O37" s="4"/>
@@ -3934,7 +3956,7 @@
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="5"/>
-      <c r="Z37" s="22" t="s">
+      <c r="Z37" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3962,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="5"/>
-      <c r="N38" s="18" t="s">
+      <c r="N38" s="5" t="s">
         <v>231</v>
       </c>
       <c r="O38" s="4">
@@ -3981,9 +4003,12 @@
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="5"/>
-      <c r="Z38" s="18" t="s">
+      <c r="Z38" s="5" t="s">
         <v>61</v>
       </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N39" s="5"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
@@ -4393,7 +4418,7 @@
       <c r="L53" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="N53" s="19" t="s">
+      <c r="N53" s="4" t="s">
         <v>89</v>
       </c>
       <c r="O53" s="4">
@@ -4444,7 +4469,7 @@
       <c r="L54" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="N54" s="19" t="s">
+      <c r="N54" s="4" t="s">
         <v>90</v>
       </c>
       <c r="O54" s="4">
@@ -4493,7 +4518,7 @@
       <c r="J55" s="5"/>
       <c r="K55" s="4"/>
       <c r="L55" s="5"/>
-      <c r="N55" s="19" t="s">
+      <c r="N55" s="4" t="s">
         <v>51</v>
       </c>
       <c r="O55" s="4">
@@ -4507,7 +4532,7 @@
       </c>
       <c r="S55" s="4"/>
       <c r="T55" s="5"/>
-      <c r="U55" s="21" t="s">
+      <c r="U55" s="19" t="s">
         <v>229</v>
       </c>
       <c r="V55" s="2"/>
@@ -4544,7 +4569,7 @@
       <c r="L56" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="N56" s="19" t="s">
+      <c r="N56" s="4" t="s">
         <v>91</v>
       </c>
       <c r="O56" s="4">
@@ -4589,7 +4614,7 @@
         <v>1</v>
       </c>
       <c r="J57" s="5"/>
-      <c r="K57" s="18" t="s">
+      <c r="K57" s="5" t="s">
         <v>52</v>
       </c>
       <c r="L57" s="5"/>
@@ -4756,29 +4781,29 @@
       <c r="J62" s="5">
         <v>0.86</v>
       </c>
-      <c r="K62" s="17" t="s">
+      <c r="K62" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="N62" s="18" t="s">
+      <c r="N62" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="O62" s="17">
+      <c r="O62" s="7">
         <v>45</v>
       </c>
-      <c r="Q62" s="18">
+      <c r="Q62" s="7">
         <v>104</v>
       </c>
-      <c r="R62" s="18">
+      <c r="R62" s="7">
         <v>3500</v>
       </c>
       <c r="S62" s="4"/>
       <c r="T62" s="5"/>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
-      <c r="W62" s="21">
+      <c r="W62" s="2">
         <v>0.3</v>
       </c>
-      <c r="X62" s="21">
+      <c r="X62" s="2">
         <v>0.3</v>
       </c>
       <c r="Y62" s="5"/>
@@ -4930,31 +4955,31 @@
       <c r="J67" s="5">
         <v>0.75</v>
       </c>
-      <c r="K67" s="17" t="s">
+      <c r="K67" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="L67" s="17" t="s">
+      <c r="L67" s="4" t="s">
         <v>173</v>
       </c>
       <c r="N67" s="5"/>
-      <c r="O67" s="17">
+      <c r="O67" s="5">
         <v>45</v>
       </c>
       <c r="P67" s="7"/>
-      <c r="Q67" s="18">
+      <c r="Q67" s="5">
         <v>54</v>
       </c>
-      <c r="R67" s="18">
+      <c r="R67" s="5">
         <v>2880</v>
       </c>
       <c r="S67" s="4"/>
       <c r="T67" s="5"/>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
-      <c r="W67" s="21">
+      <c r="W67" s="2">
         <v>0.3</v>
       </c>
-      <c r="X67" s="21">
+      <c r="X67" s="2">
         <v>0.3</v>
       </c>
       <c r="Y67" s="5"/>
@@ -4989,7 +5014,7 @@
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
       <c r="X68" s="2"/>
-      <c r="Y68" s="22" t="s">
+      <c r="Y68" s="5" t="s">
         <v>55</v>
       </c>
       <c r="Z68" s="5"/>
@@ -5106,33 +5131,33 @@
       <c r="G72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="5"/>
-      <c r="K72" s="17" t="s">
+      <c r="K72" s="5" t="s">
         <v>171</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="17" t="s">
+      <c r="M72" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="N72" s="18" t="s">
+      <c r="N72" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="O72" s="17">
+      <c r="O72" s="5">
         <v>30</v>
       </c>
-      <c r="Q72" s="18">
+      <c r="Q72" s="7">
         <v>41</v>
       </c>
-      <c r="R72" s="18">
+      <c r="R72" s="7">
         <v>1020</v>
       </c>
       <c r="S72" s="4"/>
       <c r="T72" s="5"/>
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
-      <c r="W72" s="21">
+      <c r="W72" s="2">
         <v>0.42</v>
       </c>
-      <c r="X72" s="21">
+      <c r="X72" s="2">
         <v>0.42</v>
       </c>
       <c r="Y72" s="5"/>
@@ -5283,7 +5308,7 @@
       <c r="R77" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="S77" s="20">
+      <c r="S77" s="18">
         <v>0</v>
       </c>
     </row>

--- a/examples/Germany/DEModel.xlsx
+++ b/examples/Germany/DEModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina Hajikazemi\Documents\mycode\CESMjl\examples\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62491223-5846-454E-88D8-33887D7424F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D42EBDB-C4EF-4598-9B12-635EC943D7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="18720" firstSheet="2" activeTab="4" xr2:uid="{EC78BDD3-7137-425A-8228-7CE92A9A1C25}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="4" xr2:uid="{EC78BDD3-7137-425A-8228-7CE92A9A1C25}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="248">
   <si>
     <t>Base</t>
   </si>
@@ -814,6 +814,9 @@
   </si>
   <si>
     <t>deleted !</t>
+  </si>
+  <si>
+    <t>power_to_H2</t>
   </si>
 </sst>
 </file>
@@ -1402,16 +1405,16 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="7"/>
-    <col min="3" max="3" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="7"/>
+    <col min="3" max="3" width="11.7265625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="7"/>
+    <col min="5" max="16384" width="11.453125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>116</v>
       </c>
@@ -1425,7 +1428,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
@@ -1440,7 +1443,7 @@
         <v>GW</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>36</v>
       </c>
@@ -1457,7 +1460,7 @@
         <v>GWh</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>104</v>
       </c>
@@ -1473,7 +1476,7 @@
         <v>Mio t</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -1488,7 +1491,7 @@
         <v>Mio EUR/GWh</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -1504,7 +1507,7 @@
         <v>Mio EUR/GW</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>41</v>
       </c>
@@ -1519,7 +1522,7 @@
         <v>Mio t/GWh</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>105</v>
       </c>
@@ -1554,18 +1557,18 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>112</v>
       </c>
@@ -1591,7 +1594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1614,7 +1617,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>230</v>
       </c>
@@ -1634,7 +1637,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -1657,7 +1660,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1677,7 +1680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -1717,13 +1720,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -1737,28 +1740,28 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -1769,12 +1772,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -1785,7 +1788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -1796,7 +1799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1807,7 +1810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1818,7 +1821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1829,7 +1832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1840,7 +1843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -1851,7 +1854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -1862,7 +1865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1873,7 +1876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1884,7 +1887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -1895,17 +1898,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>227</v>
       </c>
@@ -1927,13 +1930,13 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>119</v>
       </c>
@@ -1947,7 +1950,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -1958,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1969,7 +1972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1980,7 +1983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -1991,7 +1994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -2002,7 +2005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -2013,7 +2016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -2024,7 +2027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -2032,7 +2035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2048,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -2056,7 +2059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -2064,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -2072,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -2080,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>159</v>
       </c>
@@ -2088,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>244</v>
       </c>
@@ -2096,13 +2099,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>213</v>
       </c>
@@ -2113,29 +2116,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>215</v>
       </c>
       <c r="C26" s="7"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>205</v>
       </c>
@@ -2143,7 +2146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>204</v>
       </c>
@@ -2154,29 +2157,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>203</v>
       </c>
@@ -2187,8 +2190,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>161</v>
       </c>
@@ -2199,7 +2202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -2210,7 +2213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>162</v>
       </c>
@@ -2221,8 +2224,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>188</v>
       </c>
@@ -2233,7 +2236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>189</v>
       </c>
@@ -2244,7 +2247,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>190</v>
       </c>
@@ -2255,7 +2258,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>191</v>
       </c>
@@ -2266,7 +2269,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>192</v>
       </c>
@@ -2277,7 +2280,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>193</v>
       </c>
@@ -2288,7 +2291,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>168</v>
       </c>
@@ -2296,13 +2299,13 @@
       <c r="C49"/>
       <c r="D49"/>
     </row>
-    <row r="50" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>164</v>
       </c>
@@ -2313,12 +2316,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>166</v>
       </c>
@@ -2329,7 +2332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>167</v>
       </c>
@@ -2340,7 +2343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -2351,7 +2354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -2362,31 +2365,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>227</v>
       </c>
@@ -2404,41 +2407,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042B031A-8F6B-4A01-B2DE-DD19A2E3D336}">
   <dimension ref="A1:AA94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="S63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J53" sqref="J53"/>
+      <selection pane="bottomRight" activeCell="AA77" sqref="AA77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.81640625" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" customWidth="1"/>
-    <col min="11" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
+    <col min="7" max="9" width="10.7265625" customWidth="1"/>
+    <col min="10" max="10" width="20.26953125" customWidth="1"/>
+    <col min="11" max="12" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7265625" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" customWidth="1"/>
+    <col min="17" max="17" width="17.7265625" customWidth="1"/>
     <col min="18" max="18" width="30" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" customWidth="1"/>
-    <col min="24" max="24" width="13.7109375" customWidth="1"/>
-    <col min="25" max="25" width="17.28515625" customWidth="1"/>
-    <col min="26" max="26" width="16.28515625" customWidth="1"/>
+    <col min="19" max="19" width="15.7265625" customWidth="1"/>
+    <col min="20" max="20" width="13.26953125" customWidth="1"/>
+    <col min="21" max="21" width="14.26953125" customWidth="1"/>
+    <col min="22" max="22" width="14.453125" customWidth="1"/>
+    <col min="23" max="23" width="12.7265625" customWidth="1"/>
+    <col min="24" max="24" width="13.7265625" customWidth="1"/>
+    <col min="25" max="25" width="17.26953125" customWidth="1"/>
+    <col min="26" max="26" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>119</v>
       </c>
@@ -2521,7 +2524,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="6" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E2" s="9" t="s">
         <v>102</v>
       </c>
@@ -2580,7 +2583,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -2632,7 +2635,7 @@
         <v>Mio EUR</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>67</v>
       </c>
@@ -2674,7 +2677,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2714,7 +2717,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>68</v>
       </c>
@@ -2754,7 +2757,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>70</v>
       </c>
@@ -2794,7 +2797,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>71</v>
       </c>
@@ -2834,7 +2837,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>73</v>
       </c>
@@ -2871,7 +2874,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>74</v>
       </c>
@@ -2910,7 +2913,7 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
     </row>
-    <row r="11" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>128</v>
       </c>
@@ -2955,7 +2958,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2979,7 +2982,7 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>75</v>
       </c>
@@ -3013,7 +3016,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>131</v>
       </c>
@@ -3047,7 +3050,7 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>132</v>
       </c>
@@ -3081,7 +3084,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3105,7 +3108,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>77</v>
       </c>
@@ -3142,7 +3145,7 @@
       </c>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -3179,7 +3182,7 @@
       </c>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>79</v>
       </c>
@@ -3216,7 +3219,7 @@
       </c>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>81</v>
       </c>
@@ -3253,7 +3256,7 @@
       </c>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>83</v>
       </c>
@@ -3290,7 +3293,7 @@
       </c>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>85</v>
       </c>
@@ -3327,7 +3330,7 @@
       </c>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>159</v>
       </c>
@@ -3364,7 +3367,7 @@
       </c>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>244</v>
       </c>
@@ -3400,7 +3403,7 @@
       </c>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -3423,7 +3426,7 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>167</v>
       </c>
@@ -3470,7 +3473,7 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>166</v>
       </c>
@@ -3517,7 +3520,7 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>165</v>
       </c>
@@ -3567,7 +3570,7 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>164</v>
       </c>
@@ -3614,7 +3617,7 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>163</v>
       </c>
@@ -3663,7 +3666,7 @@
       </c>
       <c r="Z30" s="5"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3688,7 +3691,7 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>192</v>
       </c>
@@ -3731,7 +3734,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>193</v>
       </c>
@@ -3778,7 +3781,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>168</v>
       </c>
@@ -3823,7 +3826,7 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>188</v>
       </c>
@@ -3868,7 +3871,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>189</v>
       </c>
@@ -3915,7 +3918,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>190</v>
       </c>
@@ -3960,7 +3963,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>191</v>
       </c>
@@ -4007,10 +4010,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="N39" s="5"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>203</v>
       </c>
@@ -4054,7 +4057,7 @@
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>202</v>
       </c>
@@ -4098,7 +4101,7 @@
       </c>
       <c r="Z42" s="5"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>201</v>
       </c>
@@ -4138,7 +4141,7 @@
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>169</v>
       </c>
@@ -4170,7 +4173,7 @@
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>205</v>
       </c>
@@ -4210,7 +4213,7 @@
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>204</v>
       </c>
@@ -4250,7 +4253,7 @@
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>206</v>
       </c>
@@ -4292,7 +4295,7 @@
       </c>
       <c r="Z49" s="5"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4316,7 +4319,7 @@
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>86</v>
       </c>
@@ -4367,7 +4370,7 @@
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4392,7 +4395,7 @@
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>213</v>
       </c>
@@ -4443,7 +4446,7 @@
       </c>
       <c r="Z53" s="5"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>214</v>
       </c>
@@ -4496,7 +4499,7 @@
       </c>
       <c r="Z54" s="5"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>211</v>
       </c>
@@ -4543,7 +4546,7 @@
       </c>
       <c r="Z55" s="5"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>215</v>
       </c>
@@ -4594,7 +4597,7 @@
       </c>
       <c r="Z56" s="5"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>212</v>
       </c>
@@ -4641,7 +4644,7 @@
       </c>
       <c r="Z57" s="5"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -4665,7 +4668,7 @@
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -4689,7 +4692,7 @@
       <c r="Y59" s="5"/>
       <c r="Z59" s="5"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>162</v>
       </c>
@@ -4723,7 +4726,7 @@
       <c r="Y60" s="5"/>
       <c r="Z60" s="5"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>162</v>
       </c>
@@ -4759,7 +4762,7 @@
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>162</v>
       </c>
@@ -4809,7 +4812,7 @@
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>162</v>
       </c>
@@ -4843,7 +4846,7 @@
       <c r="Y63" s="5"/>
       <c r="Z63" s="5"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4867,7 +4870,7 @@
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>161</v>
       </c>
@@ -4901,7 +4904,7 @@
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>161</v>
       </c>
@@ -4935,7 +4938,7 @@
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>161</v>
       </c>
@@ -4985,7 +4988,7 @@
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>161</v>
       </c>
@@ -5019,7 +5022,7 @@
       </c>
       <c r="Z68" s="5"/>
     </row>
-    <row r="69" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -5043,7 +5046,7 @@
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>160</v>
       </c>
@@ -5079,7 +5082,7 @@
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>160</v>
       </c>
@@ -5113,7 +5116,7 @@
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>160</v>
       </c>
@@ -5163,7 +5166,7 @@
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>160</v>
       </c>
@@ -5195,7 +5198,7 @@
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>49</v>
       </c>
@@ -5242,7 +5245,7 @@
       </c>
       <c r="Z75" s="5"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>48</v>
       </c>
@@ -5286,7 +5289,7 @@
       </c>
       <c r="Z76" s="5"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>129</v>
       </c>
@@ -5311,13 +5314,16 @@
       <c r="S77" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA77" s="18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="I78" s="3"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="3"/>
     </row>
-    <row r="79" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>227</v>
       </c>
@@ -5337,7 +5343,7 @@
       <c r="Q79" s="3"/>
       <c r="R79" s="3"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>227</v>
       </c>
@@ -5351,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>227</v>
       </c>
@@ -5365,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
         <v>227</v>
       </c>
@@ -5379,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>227</v>
       </c>
@@ -5393,7 +5399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>227</v>
       </c>
@@ -5407,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>227</v>
       </c>
@@ -5421,7 +5427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>227</v>
       </c>
@@ -5435,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>227</v>
       </c>
@@ -5449,7 +5455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
         <v>227</v>
       </c>
@@ -5463,7 +5469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
         <v>227</v>
       </c>
@@ -5477,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>227</v>
       </c>
@@ -5491,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>227</v>
       </c>
@@ -5505,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
         <v>227</v>
       </c>
@@ -5519,7 +5525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
         <v>227</v>
       </c>
@@ -5533,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>227</v>
       </c>
@@ -5564,13 +5570,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7265625" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -5581,7 +5587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -5592,7 +5598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>234</v>
       </c>
@@ -5603,7 +5609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -5611,7 +5617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>98</v>
       </c>

--- a/examples/Germany/DEModel.xlsx
+++ b/examples/Germany/DEModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina Hajikazemi\Documents\mycode\CESMjl\examples\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D42EBDB-C4EF-4598-9B12-635EC943D7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECAD3F7-30B7-40D3-B322-4FF7E269AC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="4" xr2:uid="{EC78BDD3-7137-425A-8228-7CE92A9A1C25}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="18720" firstSheet="2" activeTab="4" xr2:uid="{EC78BDD3-7137-425A-8228-7CE92A9A1C25}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -1405,16 +1405,16 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="7"/>
-    <col min="3" max="3" width="11.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="7"/>
+    <col min="3" max="3" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="11.453125" style="7"/>
+    <col min="5" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>116</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>GW</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>36</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>GWh</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>104</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>Mio t</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>Mio EUR/GWh</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>Mio EUR/GW</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>41</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>Mio t/GWh</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>105</v>
       </c>
@@ -1557,18 +1557,18 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="36.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>112</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>230</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -1720,13 +1720,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -1740,28 +1740,28 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -1772,12 +1772,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -1898,17 +1898,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>227</v>
       </c>
@@ -1930,13 +1930,13 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>119</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>159</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>244</v>
       </c>
@@ -2099,13 +2099,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>213</v>
       </c>
@@ -2116,29 +2116,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>215</v>
       </c>
       <c r="C26" s="7"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>205</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>204</v>
       </c>
@@ -2157,29 +2157,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>203</v>
       </c>
@@ -2190,8 +2190,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>161</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>162</v>
       </c>
@@ -2224,8 +2224,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>188</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>189</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>190</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>191</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>192</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>193</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>168</v>
       </c>
@@ -2299,13 +2299,13 @@
       <c r="C49"/>
       <c r="D49"/>
     </row>
-    <row r="50" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>164</v>
       </c>
@@ -2316,12 +2316,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>166</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>167</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -2365,31 +2365,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>227</v>
       </c>
@@ -2408,40 +2408,40 @@
   <dimension ref="A1:AA94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="S63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="L63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AA77" sqref="AA77"/>
+      <selection pane="bottomRight" activeCell="Y68" sqref="Y68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.81640625" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" customWidth="1"/>
-    <col min="7" max="9" width="10.7265625" customWidth="1"/>
-    <col min="10" max="10" width="20.26953125" customWidth="1"/>
-    <col min="11" max="12" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="17.7265625" customWidth="1"/>
+    <col min="17" max="17" width="17.7109375" customWidth="1"/>
     <col min="18" max="18" width="30" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7265625" customWidth="1"/>
-    <col min="20" max="20" width="13.26953125" customWidth="1"/>
-    <col min="21" max="21" width="14.26953125" customWidth="1"/>
-    <col min="22" max="22" width="14.453125" customWidth="1"/>
-    <col min="23" max="23" width="12.7265625" customWidth="1"/>
-    <col min="24" max="24" width="13.7265625" customWidth="1"/>
-    <col min="25" max="25" width="17.26953125" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" customWidth="1"/>
+    <col min="25" max="25" width="17.28515625" customWidth="1"/>
+    <col min="26" max="26" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>119</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" s="6" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E2" s="9" t="s">
         <v>102</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -2635,7 +2635,7 @@
         <v>Mio EUR</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>67</v>
       </c>
@@ -2677,7 +2677,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2717,7 +2717,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>68</v>
       </c>
@@ -2757,7 +2757,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>70</v>
       </c>
@@ -2797,7 +2797,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>71</v>
       </c>
@@ -2837,7 +2837,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>73</v>
       </c>
@@ -2874,7 +2874,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>74</v>
       </c>
@@ -2913,7 +2913,7 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
     </row>
-    <row r="11" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>128</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2982,7 +2982,7 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>75</v>
       </c>
@@ -3016,7 +3016,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>131</v>
       </c>
@@ -3050,7 +3050,7 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>132</v>
       </c>
@@ -3084,7 +3084,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3108,7 +3108,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>77</v>
       </c>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>79</v>
       </c>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>81</v>
       </c>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>83</v>
       </c>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>85</v>
       </c>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>159</v>
       </c>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>244</v>
       </c>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -3426,7 +3426,7 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>167</v>
       </c>
@@ -3473,7 +3473,7 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>166</v>
       </c>
@@ -3520,7 +3520,7 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>165</v>
       </c>
@@ -3570,7 +3570,7 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>164</v>
       </c>
@@ -3617,7 +3617,7 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>163</v>
       </c>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="Z30" s="5"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3691,7 +3691,7 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>192</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>193</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>168</v>
       </c>
@@ -3826,7 +3826,7 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>188</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>189</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>190</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>191</v>
       </c>
@@ -4010,10 +4010,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="N39" s="5"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>203</v>
       </c>
@@ -4057,7 +4057,7 @@
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>202</v>
       </c>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="Z42" s="5"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>201</v>
       </c>
@@ -4141,7 +4141,7 @@
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>169</v>
       </c>
@@ -4173,7 +4173,7 @@
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>205</v>
       </c>
@@ -4213,7 +4213,7 @@
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>204</v>
       </c>
@@ -4253,7 +4253,7 @@
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>206</v>
       </c>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="Z49" s="5"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4319,7 +4319,7 @@
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>86</v>
       </c>
@@ -4370,7 +4370,7 @@
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4395,7 +4395,7 @@
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>213</v>
       </c>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="Z53" s="5"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>214</v>
       </c>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="Z54" s="5"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>211</v>
       </c>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="Z55" s="5"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>215</v>
       </c>
@@ -4597,7 +4597,7 @@
       </c>
       <c r="Z56" s="5"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>212</v>
       </c>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="Z57" s="5"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -4668,7 +4668,7 @@
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -4692,7 +4692,7 @@
       <c r="Y59" s="5"/>
       <c r="Z59" s="5"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>162</v>
       </c>
@@ -4726,7 +4726,7 @@
       <c r="Y60" s="5"/>
       <c r="Z60" s="5"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>162</v>
       </c>
@@ -4762,7 +4762,7 @@
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>162</v>
       </c>
@@ -4812,7 +4812,7 @@
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>162</v>
       </c>
@@ -4846,7 +4846,7 @@
       <c r="Y63" s="5"/>
       <c r="Z63" s="5"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4870,7 +4870,7 @@
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>161</v>
       </c>
@@ -4904,7 +4904,7 @@
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>161</v>
       </c>
@@ -4938,7 +4938,7 @@
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>161</v>
       </c>
@@ -4988,7 +4988,7 @@
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>161</v>
       </c>
@@ -5017,12 +5017,12 @@
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
       <c r="X68" s="2"/>
-      <c r="Y68" s="5" t="s">
+      <c r="Y68" s="17" t="s">
         <v>55</v>
       </c>
       <c r="Z68" s="5"/>
     </row>
-    <row r="69" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -5046,7 +5046,7 @@
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>160</v>
       </c>
@@ -5082,7 +5082,7 @@
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>160</v>
       </c>
@@ -5116,7 +5116,7 @@
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>160</v>
       </c>
@@ -5166,7 +5166,7 @@
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>160</v>
       </c>
@@ -5198,7 +5198,7 @@
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>49</v>
       </c>
@@ -5245,7 +5245,7 @@
       </c>
       <c r="Z75" s="5"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>48</v>
       </c>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="Z76" s="5"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>129</v>
       </c>
@@ -5318,12 +5318,12 @@
         <v>247</v>
       </c>
     </row>
-    <row r="78" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I78" s="3"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="3"/>
     </row>
-    <row r="79" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>227</v>
       </c>
@@ -5343,7 +5343,7 @@
       <c r="Q79" s="3"/>
       <c r="R79" s="3"/>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>227</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>227</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>227</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>227</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>227</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>227</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>227</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>227</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>227</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>227</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>227</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>227</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>227</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>227</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>227</v>
       </c>
@@ -5570,13 +5570,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>234</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>98</v>
       </c>
